--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/966822abc8f94e97/Desktop/Dice_Job_links/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE8D3F8-E8E6-4B67-9376-B57464C5A2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD330DA221922CEF0507F80326B6FD35E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95E5872E-1860-46F0-87A1-91DF9F23AB1C}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="759" yWindow="759" windowWidth="18851" windowHeight="9766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -55,30 +50,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,27 +358,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A1:XFD1048576"/>
+      <selection activeCell="J13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -1,42 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/966822abc8f94e97/Desktop/Dice_Job_links/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD330DA221922CEF0507F80326B6FD35E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95E5872E-1860-46F0-87A1-91DF9F23AB1C}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="759" yWindow="759" windowWidth="18851" windowHeight="9766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -357,15 +408,692 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Employment_Type</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Senior Golang Engineer</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/5d92646a-fde6-4cba-9fc8-f459512189d1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Hybrid in Austin, Texas</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>$70 - $80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>47Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Golang Developer (Cloud &amp; Backend Focus)+ Networking</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/40c14cfc-9103-46e0-a998-202e23fb9fc2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>San Diego, California</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>$50 - $65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Oxford Global Resources</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jr. Software Development Engineer in Manufacturing Test (Python/Golang)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/ddbdf1ec-507c-438f-833c-18afdadc67df</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Santa Clara, California</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>$40 - $60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Galactic Minds Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Golang Architect</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/99a5317c-b974-4cbe-9a0b-3d294f685437</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Duluth, Georgia</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>$DOE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bayside Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Infrastructure Engineer (Kubernetes/Golang)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/86cca3d2-5321-4854-b609-d1c9c7353a9c</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$55 - $65 per hour</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bayside Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Golang Software Engineer</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/0cdc06ea-d64b-40fc-ab38-192fa25e407f</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Cupertino, California</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>$58 - $68 per hour</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>XFORIA Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Java Full Stack Developer (ReactJS &amp; Golang) / Golang Developer</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/029820d1-b20d-41ce-8622-d7e6632312f4</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lorvin Technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Java Developer (with Golang)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/5c813efe-be9a-43f7-8135-9e157132daf0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Queens, New York</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>50 - 60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ASCII Group LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Java Developer With Scala, Go</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/2d3c6ce0-7e42-4e8b-8962-24c89daaba3a</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sunnyvale, California</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Talent Portus</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Application Support Engineer</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/8bf15f9b-9dcd-4d4a-a9c7-bb0960fc6717</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Austin, Texas</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>$65 - $70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Javen Technologies, Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Senior Golang Engineer</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/5d92646a-fde6-4cba-9fc8-f459512189d1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Hybrid in Austin, Texas</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>$70 - $80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>47Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Golang Developer (Cloud &amp; Backend Focus)+ Networking</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/40c14cfc-9103-46e0-a998-202e23fb9fc2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>San Diego, California</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>$50 - $65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Oxford Global Resources</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jr. Software Development Engineer in Manufacturing Test (Python/Golang)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/ddbdf1ec-507c-438f-833c-18afdadc67df</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Santa Clara, California</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>$40 - $60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Galactic Minds Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Golang Architect</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/99a5317c-b974-4cbe-9a0b-3d294f685437</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Duluth, Georgia</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>$DOE</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bayside Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Infrastructure Engineer (Kubernetes/Golang)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/86cca3d2-5321-4854-b609-d1c9c7353a9c</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>$55 - $65 per hour</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bayside Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Golang Software Engineer</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/0cdc06ea-d64b-40fc-ab38-192fa25e407f</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Cupertino, California</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>$58 - $68 per hour</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>XFORIA Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Java Full Stack Developer (ReactJS &amp; Golang) / Golang Developer</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/029820d1-b20d-41ce-8622-d7e6632312f4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Lorvin Technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Java Developer (with Golang)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/5c813efe-be9a-43f7-8135-9e157132daf0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Queens, New York</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>50 - 60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ASCII Group LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Java Developer With Scala, Go</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/2d3c6ce0-7e42-4e8b-8962-24c89daaba3a</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sunnyvale, California</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Talent Portus</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Application Support Engineer</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/8bf15f9b-9dcd-4d4a-a9c7-bb0960fc6717</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Austin, Texas</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>$65 - $70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Javen Technologies, Inc</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,32 +434,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Employment_Type</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Salary</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
@@ -776,320 +788,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Senior Golang Engineer</t>
+          <t>Golang Architect / Principal Backend Architect - Atlanta, GA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.dice.com/job-detail/5d92646a-fde6-4cba-9fc8-f459512189d1</t>
+          <t>https://www.dice.com/job-detail/d909bde8-866c-4ca7-8874-8e2c93f3aad7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Hybrid in Austin, Texas</t>
+          <t>Atlanta, Georgia</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Contract</t>
+          <t>Third Party, Contract</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>$70 - $80</t>
+          <t>$58 - $68 per hour</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>47Billion</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Golang Developer (Cloud &amp; Backend Focus)+ Networking</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://www.dice.com/job-detail/40c14cfc-9103-46e0-a998-202e23fb9fc2</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>San Diego, California</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Third Party, Contract</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$50 - $65</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Oxford Global Resources</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Jr. Software Development Engineer in Manufacturing Test (Python/Golang)</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>https://www.dice.com/job-detail/ddbdf1ec-507c-438f-833c-18afdadc67df</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Santa Clara, California</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$40 - $60</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Galactic Minds Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Golang Architect</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>https://www.dice.com/job-detail/99a5317c-b974-4cbe-9a0b-3d294f685437</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Duluth, Georgia</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Contract, Third Party</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$DOE</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>Bayside Solutions</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Infrastructure Engineer (Kubernetes/Golang)</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>https://www.dice.com/job-detail/86cca3d2-5321-4854-b609-d1c9c7353a9c</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$55 - $65 per hour</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Bayside Solutions</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Golang Software Engineer</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>https://www.dice.com/job-detail/0cdc06ea-d64b-40fc-ab38-192fa25e407f</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Cupertino, California</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$58 - $68 per hour</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>XFORIA Inc</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Java Full Stack Developer (ReactJS &amp; Golang) / Golang Developer</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>https://www.dice.com/job-detail/029820d1-b20d-41ce-8622-d7e6632312f4</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Depends on Experience</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Lorvin Technologies</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Java Developer (with Golang)</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>https://www.dice.com/job-detail/5c813efe-be9a-43f7-8135-9e157132daf0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Queens, New York</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Contract, Third Party</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>50 - 60</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>ASCII Group LLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Java Developer With Scala, Go</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>https://www.dice.com/job-detail/2d3c6ce0-7e42-4e8b-8962-24c89daaba3a</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Sunnyvale, California</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Depends on Experience</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Talent Portus</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Application Support Engineer</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>https://www.dice.com/job-detail/8bf15f9b-9dcd-4d4a-a9c7-bb0960fc6717</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Austin, Texas</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Contract, Third Party</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>$65 - $70</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Javen Technologies, Inc</t>
         </is>
       </c>
     </row>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -1,48 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/966822abc8f94e97/Desktop/Dice_Job_links/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3605246B100DDF0507F80326B6FD35E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49E339D0-7D96-4E4F-BE14-607BB50D7D77}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="759" yWindow="759" windowWidth="18851" windowHeight="9766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,26 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -357,15 +420,756 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Employment_Type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Senior Golang Engineer</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/5d92646a-fde6-4cba-9fc8-f459512189d1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Hybrid in Austin, Texas</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>$70 - $80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>47Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Golang Developer (Cloud &amp; Backend Focus)+ Networking</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/40c14cfc-9103-46e0-a998-202e23fb9fc2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>San Diego, California</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>$50 - $65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Oxford Global Resources</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jr. Software Development Engineer in Manufacturing Test (Python/Golang)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/ddbdf1ec-507c-438f-833c-18afdadc67df</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Santa Clara, California</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>$40 - $60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Galactic Minds Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Golang Architect</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/99a5317c-b974-4cbe-9a0b-3d294f685437</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Duluth, Georgia</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>$DOE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bayside Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Infrastructure Engineer (Kubernetes/Golang)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/86cca3d2-5321-4854-b609-d1c9c7353a9c</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$55 - $65 per hour</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Stellite Works LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Golang Architect / Principal Backend Architect - Atlanta, GA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/d909bde8-866c-4ca7-8874-8e2c93f3aad7</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>$58 - $68 per hour</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bayside Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Golang Software Engineer</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/0cdc06ea-d64b-40fc-ab38-192fa25e407f</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Cupertino, California</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>$58 - $68 per hour</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>XFORIA Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Java Full Stack Developer (ReactJS &amp; Golang) / Golang Developer</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/029820d1-b20d-41ce-8622-d7e6632312f4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lorvin Technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Java Developer (with Golang)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/5c813efe-be9a-43f7-8135-9e157132daf0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Queens, New York</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>50 - 60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ASCII Group LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Java Developer With Scala, Go</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/2d3c6ce0-7e42-4e8b-8962-24c89daaba3a</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sunnyvale, California</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Talent Portus</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Application Support Engineer</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/8bf15f9b-9dcd-4d4a-a9c7-bb0960fc6717</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Austin, Texas</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>$65 - $70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Javen Technologies, Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Senior Golang Engineer</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/5d92646a-fde6-4cba-9fc8-f459512189d1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Hybrid in Austin, Texas</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>$70 - $80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>47Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Golang Developer (Cloud &amp; Backend Focus)+ Networking</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/40c14cfc-9103-46e0-a998-202e23fb9fc2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>San Diego, California</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>$50 - $65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Oxford Global Resources</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jr. Software Development Engineer in Manufacturing Test (Python/Golang)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/ddbdf1ec-507c-438f-833c-18afdadc67df</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Santa Clara, California</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>$40 - $60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Galactic Minds Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Golang Architect</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/99a5317c-b974-4cbe-9a0b-3d294f685437</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Duluth, Georgia</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>$DOE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bayside Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Infrastructure Engineer (Kubernetes/Golang)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/86cca3d2-5321-4854-b609-d1c9c7353a9c</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>$55 - $65 per hour</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Stellite Works LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Golang Architect / Principal Backend Architect - Atlanta, GA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/d909bde8-866c-4ca7-8874-8e2c93f3aad7</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>$58 - $68 per hour</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bayside Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Golang Software Engineer</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/0cdc06ea-d64b-40fc-ab38-192fa25e407f</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Cupertino, California</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>$58 - $68 per hour</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>XFORIA Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Java Full Stack Developer (ReactJS &amp; Golang) / Golang Developer</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/029820d1-b20d-41ce-8622-d7e6632312f4</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Lorvin Technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Java Developer (with Golang)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/5c813efe-be9a-43f7-8135-9e157132daf0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Queens, New York</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>50 - 60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ASCII Group LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Java Developer With Scala, Go</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/2d3c6ce0-7e42-4e8b-8962-24c89daaba3a</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Sunnyvale, California</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Talent Portus</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Application Support Engineer</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/8bf15f9b-9dcd-4d4a-a9c7-bb0960fc6717</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Austin, Texas</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>$65 - $70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Javen Technologies, Inc</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,17 +820,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Senior Golang Engineer</t>
+          <t>Senior Software Engineer (Full Stack – Golang &amp; React)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.dice.com/job-detail/5d92646a-fde6-4cba-9fc8-f459512189d1</t>
+          <t>https://www.dice.com/job-detail/b2c126f1-9244-42c8-8a61-d05985192599</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hybrid in Austin, Texas</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -840,332 +840,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>$70 - $80</t>
+          <t>Depends on Experience</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>47Billion</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Golang Developer (Cloud &amp; Backend Focus)+ Networking</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>https://www.dice.com/job-detail/40c14cfc-9103-46e0-a998-202e23fb9fc2</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>San Diego, California</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Third Party, Contract</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$50 - $65</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Oxford Global Resources</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Jr. Software Development Engineer in Manufacturing Test (Python/Golang)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>https://www.dice.com/job-detail/ddbdf1ec-507c-438f-833c-18afdadc67df</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Santa Clara, California</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$40 - $60</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Galactic Minds Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Golang Architect</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>https://www.dice.com/job-detail/99a5317c-b974-4cbe-9a0b-3d294f685437</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Duluth, Georgia</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Contract, Third Party</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$DOE</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Bayside Solutions</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Infrastructure Engineer (Kubernetes/Golang)</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>https://www.dice.com/job-detail/86cca3d2-5321-4854-b609-d1c9c7353a9c</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$55 - $65 per hour</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Stellite Works LLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Golang Architect / Principal Backend Architect - Atlanta, GA</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>https://www.dice.com/job-detail/d909bde8-866c-4ca7-8874-8e2c93f3aad7</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Atlanta, Georgia</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Contract, Third Party</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>$58 - $68 per hour</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Bayside Solutions</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Golang Software Engineer</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>https://www.dice.com/job-detail/0cdc06ea-d64b-40fc-ab38-192fa25e407f</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Cupertino, California</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$58 - $68 per hour</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>XFORIA Inc</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Java Full Stack Developer (ReactJS &amp; Golang) / Golang Developer</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>https://www.dice.com/job-detail/029820d1-b20d-41ce-8622-d7e6632312f4</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Depends on Experience</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Lorvin Technologies</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Java Developer (with Golang)</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>https://www.dice.com/job-detail/5c813efe-be9a-43f7-8135-9e157132daf0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Queens, New York</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Contract, Third Party</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>50 - 60</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>ASCII Group LLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Java Developer With Scala, Go</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>https://www.dice.com/job-detail/2d3c6ce0-7e42-4e8b-8962-24c89daaba3a</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sunnyvale, California</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Depends on Experience</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>Talent Portus</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Application Support Engineer</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>https://www.dice.com/job-detail/8bf15f9b-9dcd-4d4a-a9c7-bb0960fc6717</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Austin, Texas</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Contract, Third Party</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$65 - $70</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Javen Technologies, Inc</t>
         </is>
       </c>
     </row>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,6 +849,70 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Golang Architect</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/646e46ea-4d1d-4e23-846b-ee8a5263c7da</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Full-time, Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>$58 - $68 per hour</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Stellite Works LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Senior Full Stack Developer with Golang || Onsite at Phoenix, AZ || 10+ Years || C2C &amp; W2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/6df71cb2-1aa6-48d8-8fdc-c2f86a75d761</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Phoenix, Arizona</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60 - 65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Arnex Solutions LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,6 +913,38 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Golang Architect / Principal Backend Architect || Atlanta, GA (Onsite)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/4d57826e-1249-42b5-a805-223a1887a5db</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Galactic Minds Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -945,6 +945,294 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/4e0cad2a-5167-4096-9148-440fb179fdce</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Richmond, Virginia</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>$50 - $60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Lorvenk Technologies LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/fe1336e0-6e7a-4b97-a450-08f8ec0c26ba</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Virginia Beach, Virginia</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Oxford Global Resources</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Junior Level Golang Developer ::: Remote ::: Long Term</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/9855f6bb-0df0-4ed8-b580-9c6d003298f3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>VRN Technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mid Level Golang Developer ::: Remote ::: Long Term</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/225c92b3-6786-4bf0-b965-2bb542eefcd8</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>VRN Technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Senior Golang Developer ::: Remote ::: Long Term</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/1ab059fa-aefa-4ed1-b01d-5c4adb80ad5a</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ERPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Integration and Middleware Developer (.NET, GoLang, Python) - Harrisburg, PA - hybrid role - 12 Months</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/4af1581d-3f55-4119-b445-59e5bb9f0392</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Harrisburg, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>StarTechs Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Golang Architect / Principal Backend Architect</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/d0aee673-010b-42d8-84bf-74658e016c0f</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Third Party</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>$58 - $68 per hour</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Quantum World Technologies Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Golang Architect / Principal Backend Architect</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/8cc35663-69dc-4e57-8cde-e05042f54f6f</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>$58 - $68 per hour</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Stellite Works LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Lead / Sr Golang Developer</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/21c59a65-f637-49e9-8aa6-9ffff64d94c8</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Hybrid in Plano, Texas</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Lorvin Technologies</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1233,6 +1233,38 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Golang developer</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/ccf40fb8-8acf-4fa1-a932-6b7cdd564006</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Richmond, Virginia</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Lorvenk Technologies LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1265,6 +1265,102 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Senior Golang Developer</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/501e2625-4e56-4074-81e3-7e181ce193a4</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Hybrid in Sunnyvale, California</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>P2PSoftTek Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Golang Developer (W2)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/2fd7b3dd-4e05-4030-bbe5-876fbf976cee</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Hybrid in Sunnyvale, California</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>$40 - $65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Lorvenk Technologies LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Senior .Net/GoLang Integration Developer - Primarily Remote</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/8228c51c-e3b3-42ad-8344-a098563b08de</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>EmployVision</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1361,6 +1361,38 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Golang Architect / Principal Backend Architect - Atlanta, GA -onsite</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/8c7df8da-e8d3-48e0-b8a4-fa0e0d0fd9c9</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Oxford Global Resources</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,6 +1393,38 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Google Cloud Platform DevOps Engneer (Telecom domain &amp; Visa independent only)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/88da6340-a700-441c-be19-26365a5582fe</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Remote or San Jose, California</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Zeforge LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,6 +1425,38 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Golang Architect / Principal Backend Architect</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/4c45285a-0956-486e-bc87-dc3cdac57f5c</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>$80 - $85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Montek System</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1457,6 +1457,38 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Golang Architect / Principal Backend Architect</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/679f7586-7818-4fbb-9e79-a94c62a72734</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Third Party</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>$80 - $85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Source Mantra Inc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1489,6 +1489,38 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Golang Architect / Principal Backend Architect - Atlanta, GA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/9c4df3f1-bfaa-4b3b-ae7e-91d9ba3accec</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>$80 - $85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Ocean Blue Solution</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1521,6 +1521,134 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/23964ab8-0c28-462c-92c5-977132d21423</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Remote or Hybrid in Cleveland, Ohio</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>DOE</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Crea Services LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Golang Architect / Principal Backend Architect</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/eb2d20e5-cb44-468e-ac55-a2185bcb3be9</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>$DOE</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Stellite Works LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Golang Engineer</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/aef73333-4197-4d3d-b077-2e73a54f8988</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>50 - 55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Arnex Solutions LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Software Engineer Backend</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/0519334e-e679-4fd9-b986-1306a3644194</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Fremont, California</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Tekfortune Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1649,6 +1649,134 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/a07931e6-29b6-4e82-b0c7-9ce1edd1fde7</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Fremont, California</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Full-time, Contract</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Radyant Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Software Engineer - GO/JavaScript/Angular Or React</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/de55429f-3edf-46c3-a6b6-05601d6ccbd4</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Ocean Blue Solution</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Golang Go Architect</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/7afb0fd0-b3ca-4475-a396-1c2a8b13513a</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>$80 - $85</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Source Mantra Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/f56507c9-5983-470e-a67a-e683013b4296</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>$90 - $100</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Arnex Solutions LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1777,6 +1777,70 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Backend Engineer (GoLang &amp; TypeScript)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/0ec930c6-7d7c-452a-87bf-36d2d64b9b4c</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Remote or New Jersey</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Full-time, Contract</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Radyant Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sr. Golang Developer- (Cloud Software Engineer)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/8b7471d3-f952-44db-bd51-b67cc17cdd03</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Hybrid in Plano, Texas</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>100 - 110</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>MSYS Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1841,6 +1841,38 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/9e6797b8-138a-4d89-a76a-5dcefec2dccf</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Source Mantra Inc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1873,6 +1873,38 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Golang Engineer</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/dedc818b-64d3-44f3-98ae-c16edc7d047d</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Phoenix, Arizona</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>USD 140,000.00 - 150,000.00 per year</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>HMG America</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,6 +1905,38 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Backend Developer - Remote. But be within 50 miles of the following cities Wilmington, DE , Baltimore, MD , Charlotte, NC, Dallas, TX , New York, NY , Evansville, IN. Must have Proficiency in Golang and TypeScript; experience with Node.js, Apollo Server, and REST API design, ORMs &amp; Data Modeling: GORM, PrismaORM or TypeORM, AWS/Google Cloud Platform/Azure, JWT/OIDC, TLS, IAM/RBAC, CI/CD, GraphQL federation and Apollo Router.</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/c14fba57-140f-48fc-90a5-bb83a1de696e</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>HMG America</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1937,6 +1937,38 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/660f87c2-8f1e-4464-96fc-764482a91acd</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Montek System</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1969,6 +1969,102 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Golang Architect</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/a5af2b1e-5691-4ff6-86fc-51996fdb4cd5</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>InfiCare Technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Golang Architect / Principal Backend Architect</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/8d4bdef4-f002-49a4-9040-f41eb8cba37a</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Third Party</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Keylent</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Go Lang Developer</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/093799d8-8c91-4d22-a714-54460b7d10e0</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Elista Global LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2065,6 +2065,70 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Golang Architect with API &amp; Microservices</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/48983e1e-4ed5-423f-a666-706545588ed4</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>$75 - $80</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Concent Software Solution LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Software Engineer ( Golang )</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/73d8e799-7f1d-4014-8e99-f8f0d221108a</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Phoenix, Arizona</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>$80 - $85</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Source Mantra Inc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2129,6 +2129,38 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/5db1be0f-a4aa-4747-bd97-f8b8bce91482</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Plano, Texas</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>$63.7 - $73.76</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Judge Group, Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2161,6 +2161,38 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Golang Tech Lead</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/2eae25a3-93f1-44f6-a98a-5af568612ca2</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Tampa, Florida</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Concent Software Solution LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2193,6 +2193,38 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Backend Engineer</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/710154b6-fc1d-4c93-b837-ac1e94c89185</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>CSZNet, Inc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2225,6 +2225,38 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>GoLang Developer || Locals || W2 only</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/e99ca95d-93cf-4be3-a3c4-6ced727415f2</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Hybrid in Sunnyvale, California</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Concent Software Solution LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2257,6 +2257,102 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Backend Go Engineer</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/cc08a4b5-1ed3-4f51-af67-efec6373ac2b</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>New York, New York</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>$73 - $83 per hour</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Concent Software Solution LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Backend Go Engineer</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/d88a759f-02b8-4ceb-bec3-12325eef67e8</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>New York, New York</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>$65 - $75 per hour</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Business Needs Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>GoLang, Sr Engineer</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/467f0803-dae4-4cca-b5d3-3a3db36407c9</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>V-Soft Consulting Group, Inc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2353,6 +2353,262 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Software Engineer III Backend Systems (AI &amp; Data Platforms) | Redmond, WA (Onsite) | Contract |</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/f2a13a78-2b8f-4c2d-a13f-d6edbe09fad8</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Redmond, Washington</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Tri-Force Consulting Services Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SENIOR DEVOPS LEAD WITH Google Cloud Platform, KUBERNETES, TERRAFORM</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/f4b94690-2253-4ba4-aec3-c6f1ea377eb2</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Myticas LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Lead Java AWS Developer with AI exp : Chicago, IL (In-Person interview)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/1114ad54-a1b1-4931-8891-755ee17a6c46</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Chicago, Illinois</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Randstad Digital</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Microservices Sr Backend Developer Lead</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/1ba91949-8f43-4ec0-bdfd-030ebe183bbb</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Pleasanton, California</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Digitek Software, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Java Backend Engineer</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/814659f0-f99d-413c-ab52-901914b6180c</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Hybrid in Dayton, Ohio</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Apetan Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SAP Vistex Consultant  |Chicago, IL (Hybrid) | Contract W2 only</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/7a2c89a4-feb1-44dd-abbd-f8f9dc06a02c</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Hybrid in Chicago, Illinois</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>$65 - $70</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Robert Half</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Google Cloud Platform Cloud Engineer/Architect</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/0ecc79bc-5620-41ac-9513-6201008d633e</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Zen &amp; Art</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Senior Cloud Engineer - Google Cloud Platform</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/e3a7d768-9878-4f4c-a8b7-a443716d8640</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Up to $80</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sysazzle</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2609,6 +2609,102 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Golang + MQTT Developer</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/e0364328-651a-4abb-be87-dbaaec2ea67c</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>$73 - $83 per hour</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>STAND 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Backend Software Engineer</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/028c9435-f21f-456c-a58b-3f891008f363</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Hybrid in Redmond, Washington</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Technovision, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>AWS or Google Cloud Platform Administrator, an architect, or an Admin.|| Onsite - Hybrid at Mclean VA / Santa Monica, CA || Must have Linkedin and 14+ years of exp.||</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/6dbf6404-619e-469d-820b-682c871046f4</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Hybrid in McLean, Virginia</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Up to $60</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Tri-Force Consulting Services Inc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2705,6 +2705,38 @@
         </is>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Golang Architect / Principal Backend Architect</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/82042fb2-5faf-481f-b812-13a7e928975b</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Third Party</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>$65 - $75 per hour</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>STAND 8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2737,6 +2737,38 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/8c9d94ac-871b-4972-b401-a43426b7c1d8</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Fremont, California</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Full-time, Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>$65 - $75 per hour</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>STAND 8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2769,6 +2769,70 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Golang Backend Developer-IoT Platforms-67189</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/319af849-3254-43dc-9da8-7f0ff0fa9097</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>$$50/hr</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Robustware</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Golang Developer - Phoenix, AZ (Onsite)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/cde8083c-5502-4d06-8ff8-ad9d5cb597e2</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Phoenix, Arizona</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>STAND 8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2833,6 +2833,38 @@
         </is>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Golang + MQTT working</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/d7b4a34f-40a0-489c-87f6-5dd9b6094553</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Catapult Solutions Group</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2865,6 +2865,70 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Healthcare Senior Golang Developer</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/ae1b61df-4724-423c-9b66-1a37695d2877</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Remote or California</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Third Party</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Pioneer Corporate Services Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Java Backend Engineer</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/9605b724-b3bc-4eae-993a-e972463ab331</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Alpharetta, Georgia</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>USD 87.00 - 89.43 per hour</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>SolutionIT, Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2929,6 +2929,30 @@
         </is>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>AWS Full-Stack Backend Developer</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/1bb26bae-6050-4485-9e19-10832c5bcd04</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Albany, New York</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Full-time, Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2953,6 +2953,70 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Backend Java Developer</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/480135e6-b37f-48ef-b352-ad7c9c052ba9</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Minneapolis, Minnesota</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>USD 50.00 - 60.00 per hour</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Robert Half</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Backend Java Developer</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/b478024f-0940-4af2-8f3c-bb021830c8f7</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Minneapolis, Minnesota</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>USD 60.00 - 70.00 per hour</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>PETADATA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3017,6 +3017,38 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Backend Engineer</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/54a9683e-7ac2-4112-9405-d165cded16ae</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Hybrid in Minneapolis, Minnesota</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>HYR Global Source Inc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3049,6 +3049,102 @@
         </is>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Hiring for a Golang Developer in McLean, VA / Richmond VA</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/fe5d1d61-23a5-416d-bbae-7368d6cb757f</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Richmond, Virginia</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Full-time, Contract</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>InfiCare Technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Golang Architect / Principal Backend Architect Only Local to GA</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/0e936e90-924d-4b67-b0c7-03e143cfbeb8</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Third Party</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Dahl Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Google CCAI Tech Lead</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/bf26aea7-da55-4c7b-8a1a-53e6f37a4dc0</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Hybrid in Hartford, Connecticut</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>VDart, Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3145,6 +3145,38 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/9a35a2c6-39b2-4363-8018-5a763af2592a</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>West Chester, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>InfiCare Technologies</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3177,6 +3177,134 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Senior IT Software Developer (Go, AWS, Terraform)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/f4110968-dd81-4d78-b8f8-5bf7221dab35</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Highland Heights, Ohio</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>$50 - $55</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>HYR Global Source Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/3276f88e-105c-43fa-afda-bb67b0d4758c</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>West Chester, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Full-time, Part-time, Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NasTech Global, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Golang Developer - Remote</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/79129310-8edc-410f-aa6e-03ca94028af5</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Full-time, Contract</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>InfiCare Technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>LeadGoLang Developer</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/d34d8c56-5dd4-4269-84f0-5517893013e3</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Stellar IT Solution</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3305,6 +3305,38 @@
         </is>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>AI Engineer with GoLang</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/e42b3e5d-fbf2-4c0b-9a91-367ff65deb1a</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Austin, Texas</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Third Party</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NasTech Global, Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3337,6 +3337,230 @@
         </is>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/420adaca-6f15-4ba9-83c3-f32f835793c4</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Hybrid in McLean, Virginia</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NimbusAITech LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Golang Developer (Backend)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/648c759a-755a-4cb4-928c-da48f86f2562</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Hybrid in Richmond, Virginia</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>$60 - $70</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Spar Information Systems</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Golang developer with AWS (Hybrid in Richmond, VA)</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/1e88c296-9335-4e25-9ee2-772117afa907</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Hybrid in Richmond, Virginia</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>InfiCare Technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Golang + MQTT working</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/ae99ab4a-c621-482b-b39f-4fb4f33353cd</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>SUS Infotech Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Onsite Role: Sr Java with Go &amp; Devops exp (TX, 8+Months)</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/e41efe3a-2480-4a0a-8fe2-8048ad2fedbc</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Full-time, Part-time, Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>$DOE</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Elista Global LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/6425197d-aaa4-433a-9c76-4b28756c3846</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Plano, Texas</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>iTech US, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Senior Golang Developer</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/dd9ef790-30ab-4641-b94c-f6db77c26248</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Alpharetta, Georgia</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Swanktek</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3561,6 +3561,38 @@
         </is>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Need: Golang System integration Specialist: Denver, CO OR West Chester, PA (Onsite from Day 1)</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/b698b9ba-5c0e-4766-aee6-47ddeedd9fd7</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Denver, Colorado</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Shrive Technologies LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3593,6 +3593,70 @@
         </is>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Golang Architect / Principal Backend Architect Only Local to GA</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/ac26ccd2-8c43-4730-bd1b-6494576424db</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Third Party</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Dahl Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Remote, Lead - Integration/GoLang Developer (.NET/Python/GoLang)</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/8d571df4-7128-4b87-b352-e24305235af8</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Swanktek</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3657,6 +3657,34 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Golang&amp;.NetDeveloper withfrontend tool Svelte || Minneapolis, Minnesota(Hybrid) || Relocation works</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/1b353394-e7dd-4556-9dcc-18923d526d4c</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Minneapolis, Minnesota</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Full-time, Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Cloudious</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3685,6 +3685,38 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/d055dbac-3d70-4e22-b206-84b191beaa2a</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>60 - 65</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Elista Global LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3717,6 +3717,70 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Only 1099/W2 | Golang Devleoper@ Plano, TX</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/72b40b8d-3199-4b85-9be5-730ee078ac69</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Plano, Texas</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>InfiCare Technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Senior GoLang Developer</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/5e65c892-43e2-4daf-8978-8491e4c9af4b</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Hybrid in Plano, Texas</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Avtech Solutions</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3781,6 +3781,70 @@
         </is>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Senior Golang Developer</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/7d79dfc9-53f9-454a-aad8-ae3dcfc8ae7d</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Plano, Texas</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>$50 - $60</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Mindlance</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Senior Fullstack Golang Developer || Onsite at Phoenix,AZ &amp; Plano,TX &amp; Charlotte, NC || W2 &amp; C2C</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/d7727f7c-2b77-4125-b2e4-e7c47d30162a</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Phoenix, Arizona</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>55 - 60</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>NasTech Global, Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3845,6 +3845,70 @@
         </is>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/88326c4f-7e6e-420e-a59d-999b7caff3d7</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Fremont, California</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>TechVirtue LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Lead Golang Developer</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/83430e9f-d44c-4265-a77d-726d4701dfcc</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Richmond, Virginia</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>NasTech Global, Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3909,6 +3909,38 @@
         </is>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Sr.GolangDeveloper for TX - Hybrid</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/5d85958d-1502-4956-93ef-ddb78985d73f</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Hybrid in Plano, Texas</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Mindsource Inc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3941,6 +3941,38 @@
         </is>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Java Developer with Golang (or USC- W2)</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/485aa9a0-b79c-4fc1-9275-f1553acb8c54</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Hybrid in Richmond, Virginia</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Palnar</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3973,6 +3973,38 @@
         </is>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/664680a9-eeb8-49b7-a441-e2a1cb7d9bfa</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>West Chester, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Full-time, Part-time, Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>60 - 65</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Palnar</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4005,6 +4005,38 @@
         </is>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Golang developer Remote ( But need candidates from Dallas only)</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/e6d82202-ef16-47f5-8529-cedd05ec9869</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Dallas, Texas</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>$50 - $60</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>TechVirtue LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4037,6 +4037,38 @@
         </is>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/4770fbbf-be09-4b34-8604-67ca8b7becd5</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Hybrid in Austin, Texas</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Value Spectrum Technologies LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4069,6 +4069,38 @@
         </is>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Senior Application Development Engineer (Go Lang) - Remote-MO - 172963-1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/6bd260b7-296f-473f-b821-aa385d179c86</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Remote or St. Louis, Missouri</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>USD54 - USD64</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Spar Information Systems</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4101,6 +4101,34 @@
         </is>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Azure Infra Architect in Chicago, IL || Onsite || Hybrid</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/f4f72a82-7437-4388-a07f-ef7537f59135</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Chicago, Illinois</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Infojini</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4129,6 +4129,38 @@
         </is>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Infrastructure Data Engineer (Kubernetes-Golang)</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/7c44c0d6-d89a-40a4-92ff-16af8b3aec17</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>$55 - $65 per hour</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Randstad Digital</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4161,6 +4161,102 @@
         </is>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/1722b428-adee-4657-abdd-99d4ec26f95a</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>70+</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Ace Technologies, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Go Developer</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/0872e306-f80e-43ea-9821-966922024476</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Alpharetta, Georgia</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>AgreeYa Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Software Engineer (Backend-First, React Optional)</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/d8489b2a-b2f0-422b-8a0c-a3cd99c669e7</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Fremont, California</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>$60 - $70</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>e-IT Professionals Corp.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4257,6 +4257,38 @@
         </is>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/67a36317-d98b-486f-8974-0c572af99aa3</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Philadelphia, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Randstad Digital</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4289,6 +4289,70 @@
         </is>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>GO Programmer/Golang Developer</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/596b4b34-7d34-46f1-833c-f5648a5f1157</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Mechanicsburg, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Third Party</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>USD54 - USD64</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Randstad Digital</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/934b17e2-62d2-4af7-8c8e-6a9c8eab4aab</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>SSTech LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4353,6 +4353,70 @@
         </is>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Backend Go Engineer</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/9679448b-f94f-40e2-8a7a-d97e6e3f831c</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>New York, New York</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>$73 - $83 per hour</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>ICS Global Soft, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Backend Go Engineer</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/35aed5a1-a48b-47aa-8ff7-0919c77f96ed</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>New York, New York</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>$65 - $75 per hour</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Fynbosys Inc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4417,6 +4417,38 @@
         </is>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Golang Developer - Onsite Role</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/2fca2109-3102-4424-bcfa-92d1fbb17518</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Dallas, Texas</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>STAND 8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4449,6 +4449,30 @@
         </is>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>AWS Full-Stack Backend Developer</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/60bd2002-cdb6-47fa-82a4-837b6670edd2</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Albany, New York</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Full-time, Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4473,6 +4473,38 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
     </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Golang Engineer (AWS &amp; Java) - Plano, TX / McLean, VA / Richmond, VA (3 days onsite)</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/eb6d162f-dc2a-4432-9a89-9e50a884c75f</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Hybrid in Plano, Texas</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>ICS Global Soft, Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4505,6 +4505,70 @@
         </is>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Sr.Software Developer(Golang, SQL, Postgres)</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/860a5fe9-3cd6-43de-a64a-b4435aa147e5</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>STAND 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/ad009a2b-e4d0-4713-a240-7edb44f0a065</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>McLean, Virginia</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>$50 - $60</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>ICS Global Soft, Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4569,6 +4569,38 @@
         </is>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Java Backend Developer</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/9c157b82-9fe0-4fec-a6e4-f5da6d9fec4c</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Hybrid in McLean, Virginia</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>50 - 60</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Gtech LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4601,6 +4601,166 @@
         </is>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Golang Developer - Onsite Role</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/2fca2109-3102-4424-bcfa-92d1fbb17518?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Dallas, Texas</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Navtech, LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Sr.Software Developer(Golang, SQL, Postgres)</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/860a5fe9-3cd6-43de-a64a-b4435aa147e5?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Nobl Q, LLC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Golang Engineer (AWS &amp; Java) - Plano, TX / McLean, VA / Richmond, VA (3 days onsite)</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/eb6d162f-dc2a-4432-9a89-9e50a884c75f?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Hybrid in Plano, Texas</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>RKube Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/ad009a2b-e4d0-4713-a240-7edb44f0a065?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>McLean, Virginia</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>$50 - $60</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>S Linx LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Java Backend Developer</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/9c157b82-9fe0-4fec-a6e4-f5da6d9fec4c?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Hybrid in McLean, Virginia</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>50 - 60</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Gtech LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4761,6 +4761,38 @@
         </is>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Golang Engineer</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/bb8860a3-e6c7-4501-bd15-0139273ca985?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Richardson, Texas</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Nobl Q, LLC.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4793,6 +4793,30 @@
         </is>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Backend Software Engineer</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/7d663ff0-1363-4ecc-96f8-2e4eaf0ff0b0?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=2&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Remote or Almont, Colorado</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4817,6 +4817,38 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
     </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Backend Software Engineer</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/7d663ff0-1363-4ecc-96f8-2e4eaf0ff0b0?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Remote or Almont, Colorado</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>DOE</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Trigyn Technologies, Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4849,6 +4849,102 @@
         </is>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>GO LANG Engineer- with experience in Kubernetes, Docker, LLM || Onsite - San Jose, CA || Rate Upto $60/hr on C2C</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/d841dc26-690f-4067-957c-a1a61dfcc789?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>San Jose, California</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Up to $60</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>kjohn@samrusystems.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Golang/Postgres Developer</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/e2b71df9-1c49-437c-a729-90b30505b367?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>50 - 60</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Zeal Solutions Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Google Cloud Platform Data Solution Architect - New York, NY/Edison, NJ (Hybrid)</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/ce7c5bb5-b425-4e57-acd1-935e7467eeab?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Hybrid in New York, New York</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>$70 - $80</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Apetan Consulting</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4945,6 +4945,38 @@
         </is>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Golang Architect / Principal Backend Architect Only Local to GA</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/9a5fbd0c-22ef-46eb-8484-99c93366be46?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Third Party</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>50 - 60</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>kjohn@samrusystems.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4977,6 +4977,38 @@
         </is>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Full Stack AWS Cloud Engineer - W2 - onsite, must be local to Chicago, IL (Posted by SAM)</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/759fca36-016d-4fc9-ac21-36a2eef94a10?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Chicago, Illinois</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Compugra Systems</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5009,6 +5009,134 @@
         </is>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>enior Backend Engineer (Go, Java/Scala, AWS, REST APIs)</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/826ae36d-1a8d-4076-8467-52c806376af3?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Hybrid in McLean, Virginia</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>$60 - $70</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>InfiCare Technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Go Developer</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/e3755cd6-3b09-4987-b2a6-0c95e57fab4c?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Alpharetta, Georgia</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Astir IT Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Full Stack AWS Cloud Engineer - W2 - onsite, must be local to Chicago, IL (Posted by SAM)</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/759fca36-016d-4fc9-ac21-36a2eef94a10?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=2&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Chicago, Illinois</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>NimbusAITech LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>SAP PP Consultant || Onsite in Normal/Chicago, IL (Relocation will work) || Automotive industry exp.</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/1525e71a-a575-4d66-96a2-d6cc955fcda7?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=2&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Oraapps Inc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5137,6 +5137,70 @@
         </is>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Golang Architect / Principal Backend Architect Only Local to GA</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/09805e53-d7d8-4d5d-a4aa-ae268865ce37?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Third Party</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3BEES TECHNOLOGIES INC</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Mid Level Software Engineer - Python. W2. Hybrid Chicago</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/feb492ca-33a8-467f-91d6-fa3f2c3765c0?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Chicago, Illinois</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Up to $75</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>HSK Technologies, Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5201,6 +5201,38 @@
         </is>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Lead GoLang Developer</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/c6c22fc1-e34d-42b4-8c67-d45f83a258c8?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>McLean, Virginia</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3BEES TECHNOLOGIES INC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5233,6 +5233,230 @@
         </is>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Golang developer Remote ( But need candidates from Dallas only)</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/a1e3a639-156c-4016-9928-e8c68da6b8c8?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Dallas, Texas</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>$60 - $70</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>NimbusAITech LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Go-Lang Developer</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/c017efaa-ec6e-416d-8e2c-e96f495229eb?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>USD78 - USD77</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Pyramid Consulting, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Go-Lang Developer</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/f6fb400d-4325-4f52-b9fb-5ebccf178382?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Hybrid in Westlake, Texas</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>74 - 76</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>SS Software Solutions LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>SAP PP Consultant || Onsite in Normal/Chicago, IL (Relocation will work) || Automotive industry exp.</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/1525e71a-a575-4d66-96a2-d6cc955fcda7?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=3&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>TechVirtue LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Gen AI with Google Cloud Platform</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/443ed1e2-c7f1-42dc-8d40-e82b34cca2e5?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=3&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Oraapps Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>AWS Full-Stack Backend Developer</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/fefda5a0-978d-41c2-9f3e-1c68614653de?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=4&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Albany, New York</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Full-time, Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Calance</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Backend Java Developer,W2, Need Local Citizens</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/0451a22b-7b3c-4005-b7cb-728fa2eb195d?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=4&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Hybrid in Alpharetta, Georgia</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>50 - 60</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>The Silicon Partners Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5457,6 +5457,130 @@
         </is>
       </c>
     </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>senior Golang Developer</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/9205e164-9988-453d-ab3c-6e306aca3dfa?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>McLean, Virginia</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>NimbusAITech LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Golang Developer - San Jose, CA (Preferred) / Remote - 67316</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/c25cc8ca-dd38-42ee-ad10-3cde77e958ad?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Remote or San Jose, California</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>$$40-$43/hr</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>InfiCare Technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Go-Lang Developer</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/ec6ef353-cf41-4204-a14d-2ab45edb90dd?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Hybrid in Dallas, Texas</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Pyramid Consulting, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Gen AI with Google Cloud Platform</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/443ed1e2-c7f1-42dc-8d40-e82b34cca2e5?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=2&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5581,6 +5581,70 @@
       </c>
       <c r="F162" t="inlineStr"/>
     </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>DEVOPS LEAD WITH Google Cloud Platform, KUBERNETES, TERRAFORM</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/fde541bd-0775-47ec-90eb-44325d8159ef?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=3&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>San Jose, California</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Emergere Technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Java Full Stack Backend Developer</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/23c947c6-5f82-4e36-922c-933d8a6f5d3c?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=5&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>San Leandro, California</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Source Code Technologies LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F164"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5645,6 +5645,70 @@
         </is>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Backend Security Engineer - Hybrid</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/5fb6386a-b996-4f74-befa-eab8ca71dd9b?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=2&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Hybrid in Minneapolis, Minnesota</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Hunter Recruiting</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Application Support Engineer</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/c20ea71e-eadb-4963-95ca-ea7732f54615?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=6&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Piscataway, New Jersey</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>USD 35.00 - 38.00 per hour</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Seneca Resources, LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5709,6 +5709,38 @@
         </is>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Gen AI with Google Cloud Platform - W2- - Remote -Contract</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/39703316-a1be-4dee-b145-5af7af98668f?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=2&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>50 - 55</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Naztec International Group LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5741,6 +5741,134 @@
         </is>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Sr. Golang Engineer-Remote</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/6737edc2-e3ec-4b37-acb0-b5cd6b3a3d6b?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sagarsoft</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Urgent Opening - Golang Developer Remote</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/82e4d875-0cb3-4163-8cf9-2b223f030610?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Randstad Digital</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>IBM AS400 || Alpharetta, GA (Need local, who can go onsite from day 1)</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/c0e2d6da-7e2f-4b93-9aab-4f0a6f37797a?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Hybrid in Alpharetta, Georgia</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>$55 - $60</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Digipulse Technologies, Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/632b23fc-37b1-41db-92e7-c39c19602e7b?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>San Jose, California</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Lifelink Healthtech LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5869,6 +5869,38 @@
         </is>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Backend Security Engineer - Hybrid</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/5fb6386a-b996-4f74-befa-eab8ca71dd9b?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Hybrid in Minneapolis, Minnesota</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Hunter Recruiting</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5901,6 +5901,70 @@
         </is>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Job Title: Tech Lead - Golang / AWS (Serverless Architecture)</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/988b81d8-4af0-40bc-b81b-d5502653280f?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>McLean, Virginia</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>$70 - $80</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sagarsoft</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Cloud Automation Engineer (AWS | Python/Go)</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/e29f8561-e75f-4fe4-b56f-92316d8d4b14?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Hybrid in Hartford, Connecticut</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>TechTalent Solutions LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5965,6 +5965,38 @@
         </is>
       </c>
     </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Golang -AWS (Serverless Architecture)</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/8149b1a7-0bdd-4eec-aeef-e2a04998264c?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Hybrid in McLean, Virginia</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>$65 - $75</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>SunRay Enterprise Inc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5997,6 +5997,38 @@
         </is>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Senior Golang Developer</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/0fad2f40-ef7b-4bf8-b706-19d2be45f099?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Hybrid in Alpharetta, Georgia</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Encora</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6029,6 +6029,38 @@
         </is>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Python Engineer with Golang-Need Local onsite at Chicago,IL</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/a8271adc-62ad-43ce-9c0c-fc7b78ed7558?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Chicago, Illinois</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Third Party</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>SunRay Enterprise Inc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6061,6 +6061,38 @@
         </is>
       </c>
     </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Sr Backend Developer (Java &amp; Go)</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/08567d97-32e5-4d36-ab5d-fbb499474218?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Plano, Texas</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Full-time, Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>TechDigital Corporation</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,6 +6093,70 @@
         </is>
       </c>
     </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Python Developer with GoLang</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/06ed2f6d-b4fc-48f0-b23e-99da261889e5?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Chicago, Illinois</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Full-time, Third Party</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Dahl Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/4bb243d1-ed24-4c99-9fb0-76b8e53da475?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Hybrid in Dallas, Texas</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>50 - 55</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Stellar Professionals LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6157,6 +6157,134 @@
         </is>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Golang Developer-67024</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/18cd339e-d2db-43d3-aa6d-1e353907b413?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>San Jose, California</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Keypixel Software Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/c598b4f5-0a1a-464e-b177-b2e8c419645a?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>USD85 - USD110</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Dexian DISYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Golang Developer – AWS &amp; Microservices</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/5b12ce56-e8f0-4287-87ca-6c1f607ee0a9?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>McLean, Virginia</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>55 - 60</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Rapsys Technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Software Development Engineer (GoLang)- Onsite</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/9d97cc6a-0bb3-4668-8749-385f92ff283b?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Chantilly, Virginia</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Stellar Professionals LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F184"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6285,6 +6285,102 @@
         </is>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Senior Golang Developer</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/9c7c1315-7b19-4b3c-b881-40d93c6072c9?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Plano, Texas</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>NimbusAITech LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Golang Architect / Principal Backend Architect Only Local to GA</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/4d3b58b3-db40-4c45-8c13-5474c420def8?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Third Party</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>USD85 - USD110</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Randstad Digital</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>React Developer (React, Node, AWS; Golang a plus)</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/f427a600-410d-442e-ae37-e687409eabcc?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>McLean, Virginia</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>55 - 60</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Stellar Professionals LLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6381,6 +6381,38 @@
         </is>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Java with Golang (In person Interview)</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/d5ec4db8-dbdc-4ceb-8f75-efdbf690d584?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Phoenix, Arizona</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Rapsys Technologies</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:F189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6413,6 +6413,38 @@
         </is>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/18bd603c-4d2c-48b2-88cc-25168272ba3d?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Westlake, Texas</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>$68 - $78 hourly</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>PRIMUS Global Services Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6445,6 +6445,38 @@
         </is>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Backend Go Engineer</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/1620a54d-18c6-477e-ae1d-529a544bedaa?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>New York, New York</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>$65 - $75 per hour</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Kforce Technology Staffing</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6477,6 +6477,38 @@
         </is>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Golang Developer - Lead</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/c380908f-6cfc-4f64-876a-8dae0c39519c?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>West Chester, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Full-time, Part-time, Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>$68 - $78 hourly</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Kforce Technology Staffing</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:F194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6509,6 +6509,102 @@
         </is>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Backend Software Engineer</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/2f164b47-a7b0-4780-afb0-9fbee67daf87?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=2&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Remote or Evansville, Illinois</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Market rate</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Envision Technology Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>UX PM(Need candidates local to Chicago iL)</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/017b6b39-b14f-4aaa-a8ea-56002f56464a?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=3&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Hybrid in Chicago, Illinois</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>$65 - $70</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>DTEL Engineering &amp; Consultants Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>AWS Full-Stack Backend Developer</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/ab21904b-4096-4b9c-83c6-b1adb83a7809?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=4&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Albany, New York</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Full-time, Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>$12 - $16</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Xoriant Corporation</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F194"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6605,6 +6605,70 @@
         </is>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Government ERP UAT Lead / Manager (CGI Advantage 4.0)</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/95bd6184-6a93-4f15-ad74-d3747bfd1ed9?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=5&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>USD 27.55 - 31.90 per hour</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>PETADATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Google Cloud Platform Architect with AI</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/938c6f1d-6b9f-473d-a3a6-11ae2db753ba?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=5&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>New York, New York</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Contract, Third Party</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Tekfortune Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6669,6 +6669,38 @@
         </is>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Backend Developer (Java &amp; PHP)</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/9977f2d8-eeea-4f19-aef2-68419bb0b969?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=5&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>$75 - $80 hourly</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>GSK Solutions Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F197"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6701,6 +6701,38 @@
         </is>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Java Backend Lead Engineer</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/17f84c4e-3ab6-475c-8b76-67be77de3c16?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>McLean, Virginia</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>60 - 75</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Tri-Force Consulting Services Inc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F198"/>
+  <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6733,6 +6733,38 @@
         </is>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Onsite Role Golang/Java developer (VA, 12 Months)</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/dcef7e7e-35e5-4333-81db-4bdbaaf56a6b?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Full-time, Part-time, Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>$DOE</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>kjohn@samrusystems.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F199"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6765,6 +6765,70 @@
         </is>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>AWS Full-Stack Backend Developer</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/ab21904b-4096-4b9c-83c6-b1adb83a7809?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=3&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Albany, New York</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Full-time, Third Party, Contract</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Depends on Experience</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Synkriom</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Backend Developer (Java &amp; PHP)</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/9977f2d8-eeea-4f19-aef2-68419bb0b969?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=4&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>$75 - $80 hourly</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Datum Software, Inc.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,6 +856,53 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Backend Software Engineer</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/2f164b47-a7b0-4780-afb0-9fbee67daf87?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Remote or Evansville, Illinois</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Market rate</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fidel Softech Ltd.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Job Description: We are looking for a highly skilled backend developer to design, build, and maintain distributed systems and APIs that power mission-critical services. This role focuses on hands-on development with TypeScript and Golang, leveraging modern frameworks and cloud-native architectures to deliver secure, scalable, and resilient solutions. Key Responsibilities Backend Development Implement APIs using TypeScript (Node.js/Apollo Server) and Golang for high-performance services. Develop GraphQL subgraphs and REST endpoints, ensuring schema integrity and efficient resolver logic. Integrate with API gateways and enforce security standards (OIDC/JWT, role-based access). System Integration Collaborate with other application teams to design and implement API integration patterns. Work with Apollo Router for federated GraphQL architectures and schema composition. Ensure robust error handling, observability, and performance optimization across services. Data Layer Build and maintain data access layers using GORM (Go) and PrismaORM/TypeORM (TypeScript). Implement data integration workflows with relational databases (PostgreSQL) and data warehouses (e.g., Snowflake). Optimize queries and ensure secure handling of sensitive data. Infrastructure &amp; Cloud Deploy and operate services on containerized and serverless platforms (ECS/Fargate, Lambda) across AWS/Google Cloud Platform/Azure. Use IaC tools (CDK/Terraform) for environment provisioning and configuration. Implement observability practices with distributed tracing (X-Ray/OpenTelemetry), structured logging, and metrics.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>71.32%%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Contract Independent | On-site | Market rate</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,6 +903,147 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Backend Developer (Java &amp; PHP)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/9977f2d8-eeea-4f19-aef2-68419bb0b969?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=2&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>$75 - $80 hourly</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kforce Technology Staffing</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>RESPONSIBILITIES: Kforce has a client that is seeking a Backend Developer (Java &amp; PHP) in Atlanta, GA. Duties: * Gathering functional requirements, developing technical specifications, and project &amp; test planning * Develop scalable, efficient systems to ensure user accounts are protected, provide tools and utilities for related functions and prevent abuse/misuse of Company products * Ensure code quality, operational excellence, and adherence to software engineering best practices * Develop solutions using Java, Go, AWS, Google Cloud Platform, MYSQL, DynamoDB and AI driven development tools * Designing/developing prototypes, or proofs of concepts (POC's) * Work cross functionally with various Company teams: product management, development, Policy, Product lines, Data Science, Legal, Security to understand abuse trends and drive forward results REQUIREMENTS: * BS/MS in Computer Science or equivalent work experience * 6+ years of hands-on experience developing web, software, or mobile applications * Strong OOD and SOA principles, experience with web services (consuming or creating) with REST and gRPC * Experience with the entire Software Development Life Cycle (SDLC), Full-Stack/backend development experience, experience with AI technologies/tools and apply it to user experiences or backend solutions * Prior working experience in a cloud computing environment like AWS/Google Cloud Platform is highly desired * Demonstrated experience in technically leading complex projects * Experience in Java/J2EE, SQL, Go or any of the following Object-Oriented Languages * Experience with AWS products (including EC2, S3, RDS), Docker and Kubernetes, preferred * Experience with AI technologies like Large Language Models, Prompt Engineering, DialogFlow, Python * Experience with Agile Development, SCRUM, or Extreme Programming methodologies * Good understanding of AI concepts, including how AI models function, their various types, their respective advantages and disadvantages along with experience in integrating with AI/ML models * Solid communication skills: Demonstrated ability to explain complex technical issues to both technical and non-technical audiences * Team player possessing strong analytical, problem solving and communication skills * Strong mentoring skills with ability to provide technical guidance and review code * Have a self-starter attitude and ability to make decisions independently * Ability to work effectively in a fast paced, complex technical environment with high adaptability and flexibility Preferred: * Experience with fraud prevention, abuse patterns, cyber security * Experience developing, maintaining, and innovating large-scale applications * Familiar with the development challenges inherent in highly scalable solutions The pay range is the lowest to highest compensation we reasonably in good faith believe we would pay at posting for this role. We may ultimately pay more or less than this range. Employee pay is based on factors like relevant education, qualifications, certifications, experience, skills, seniority, location, performance, union contract and business needs. This range may be modified in the future. We offer comprehensive benefits including medical/dental/vision insurance, HSA, FSA, 401(k), and life, disability &amp; ADD insurance to eligible employees. Salaried personnel receive paid time off. Hourly employees are not eligible for paid time off unless required by law. Hourly employees on a Service Contract Act project are eligible for paid sick leave. Note: Pay is not considered compensation until it is earned, vested and determinable. The amount and availability of any compensation remains in Kforce's sole discretion unless and until paid and may be modified in its discretion consistent with the law. This job is not eligible for bonuses, incentives or commissions. Kforce is an Equal Opportunity/Affirmative Action Employer. All qualified applicants will receive consideration for employment without regard to race, color, religion, sex, pregnancy, sexual orientation, gender identity, national origin, age, protected veteran status, or disability status. By clicking ?Apply Today? you agree to receive calls, AI-generated calls, text messages or emails from Kforce and its affiliates, and service providers. Note that if you choose to communicate with Kforce via text messaging the frequency may vary, and message and data rates may apply. Carriers are not liable for delayed or undelivered messages. You will always have the right to cease communicating via text by using key words such as STOP.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>53.99%%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Contract W2 | On-site | $75 - $80 hourly</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Informatica Cloud Data Governance Catalog Specialist</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/6f16b244-a92c-425a-9007-b06701ccabcf?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=3&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Torrance, California</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>USD 53.00 - 55.00 per hour</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Robert Half</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Description We are looking for an experienced Informatica Cloud Data Governance Catalog Specialist to join our team in Southern California. This position involves working on-site four days per week and offers a long-term contract opportunity. The ideal candidate will have a strong background in data governance, analytics, and business intelligence tools, coupled with a proactive approach to problem-solving and collaboration. Responsibilities: Create catalog quality reports to monitor and enhance data governance metrics across domains and sub-domains. Develop and showcase data governance dashboards tailored to different user roles, including Data Owners, Stewards, Engineers, and Privacy Officers. Collaborate with business and IT teams, including data stewards, catalog architects, and platform owners, to implement governance solutions. Execute profiling, sampling, and scanner setups using Informatica tools to ensure data quality. Apply expertise in metadata management, data modeling, and large-scale data analysis to support governance initiatives. Design and implement both traditional relational and modern big-data architectures based on organizational requirements. Utilize business intelligence tools such as Power BI and Tableau to create actionable insights and reports. Define compliance procedures and produce audit reports to meet regulatory requirements. Establish and support governance councils and operational frameworks using data catalog tools. Facilitate metadata ingestion and ensure adherence to data security and quality standards. Requirements Proficiency with tools like Informatica Cloud Data Governance Catalog and Cloud Data Quality. Hands-on experience in data modeling, metadata management, and large-scale data analysis. Familiarity with Collibra, Alation, and Glue Data Catalog. Strong understanding of entity-relationship modeling and data security practices. Expertise in business intelligence technologies such as Power BI and Tableau. Exceptional communication and presentation skills to effectively convey technical concepts. Analytical mindset with proven problem-solving abilities. Ability to work collaboratively as part of a team and build strong relationships with stakeholders. Technology Doesn't Change the World, People Do. Robert Half is the world's first and largest specialized talent solutions firm that connects highly qualified job seekers to opportunities at great companies. We offer contract, temporary and permanent placement solutions for finance and accounting, technology, marketing and creative, legal, and administrative and customer support roles. Robert Half works to put you in the best position to succeed. We provide access to top jobs, competitive compensation and benefits, and free online training. Stay on top of every opportunity - whenever you choose - even on the go. Download the Robert Half app and get 1-tap apply, notifications of AI-matched jobs, and much more. All applicants applying for U.S. job openings must be legally authorized to work in the United States. Benefits are available to contract/temporary professionals, including medical, vision, dental, and life and disability insurance. Hired contract/temporary professionals are also eligible to enroll in our company 401(k) plan. Visit roberthalf.gobenefits.net for more information. 2025 Robert Half. An Equal Opportunity Employer. M/F/Disability/Veterans. By clicking "Apply Now," you're agreeing to Robert Half's Terms of Use and Privacy Notice.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>24.4%%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Contract Independent | Contract W2 | On-site | USD $53.00 - 55.00 per hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Java Integration Architect - W2 Contract - Ongoing</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/23ae0c27-91c5-4fc5-aa7c-90aaa609844f?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=4&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Hybrid in Oakland, California</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>$75 - $85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Triune Infomatics Inc</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Role: Java Integration Architect Location: Oakland, CA (2 days onsite mandatory) Duration: 3 months + extensions &gt;&gt; ongoing Overview: Lead a 3 months' discovery, design, implementation support and remediation exercise so existing on-premises Java applications (Linux/JBoss) can interoperate with workloads migrating to cloud. Inspect code and runtime configuration to identify every change needed to repoint integrations and produce concise compatibility patterns to resolve common issues through testing and go-live. A major stream is re-platforming DB2 integrations to Microsoft SQL Server, covering both configuration and SQL/dialect changes. Project Insights: DB2 to SQL Server migration will involve confirmed complexities such as stored procedures; additional challenges like schema differences, SQL dialect variations, and data type mismatches are expected during delivery. Architect will collaborate with the existing DBA to analyze current models and resolve issues related to embedded SQL logic, pagination, identity/sequence handling, and stored procedure calls. Migration from on-prem DB2 to cloud SQL Server will require assessment and adaptation of TLS configurations, identity management practices, and network/proxy constraints — exact impacts to be identified as part of solution discovery. Key Responsibilities: Discovery &amp; code/config review: Analyze Java apps on Linux/JBoss to locate all integration touchpoints (HTTP, messaging, databases, files, schedulers, security, network paths) with exact file/line, JNDI and environment references. Application Remediation Report (deliverable): Capture the current → target change set, change action, and validation steps for each Java application. Examples include: Connectivity : New endpoints/FQDNs/ports for migrated APIs/gateways/queues/databases; DNS/TTL; routing/peering/private link; proxy/NO_PROXY where required; DR/failover targets for those endpoints. Security : TLS specifics for new endpoints (server names/SANs, cert chains, trust/keystores, ciphers, hostname verification/SNI); identities/secrets used to call the migrated services (users/passwords, API keys/tokens), where stored, and rotation owner. Interfaces : HTTP APIs now fronted in cloud: base URLs, versions/paths, required headers/scopes, contract deltas and version pinning. Gateways referenced by Java (only if used): e.g., CTG/cloud API gateway host/port/alias/timeouts/pools/charset as called by the app. Messaging (JMS/MQ) only if that queueing endpoint is migrating: queue manager/channel/connection names, ports, TLS, credentials. Database : New driver and JDBC URL (host/port/db, encryption, failover/AG listener/multiSubnetFailover), credentials, and required SQL/dialect/schema changes (types, functions, pagination, isolation/locking/WITH UR equivalents, stored procedure call syntax, error/return code mapping, identifier/collation rules). Include the network path to SQL Server (private link/peering/proxy) and validation of connectivity/failover. Runtime &amp; resilience : Connect/read timeouts, retries/back-off (idempotency where relevant), circuit breakers/health checks, transaction recovery impacts; charset/locale where gateway/database behavior changes. Application Compatibility Patterns (deliverable) : Produce short, reusable playbooks within Java scope for remediation and topology shifts (e.g., JDBC→SQL Server, TLS trust/hostname checks, HTTP client timeouts/retries, MQ/JMS client config, proxy/NO_PROXY, DNS failover, charset; and Java→CTG→CICS to Java→Cloud API Gateway→service; Java→VPN→DB2 to Java→SQL Server via private link), each with minimal code/config, verification and rollback. Stakeholder engagement: Work with client architects (application, integration, security, network) to shape options, agree patterns and support UAT/cutover. Governance &amp; traceability: Maintain per-app change logs and risks; surface dependencies and non-functional impacts (latency, throughput, DR). Documentation: Design and document the implementation steps to guide the development team through execution. Update and revise the documentation to align with the final integration setup to train and hand over the maintainability of the integrations to the client support team. Skills &amp; Experience (Essential): 7+ years as an application architect or senior Java engineer, able to read Java and pinpoint integration/configuration changes in Linux/JBoss environments. Demonstrable delivery of discovery/remediation for on-prem → cloud migrations, re-pointing integrations. Strong SQL with proven Microsoft SQL Server experience, including assessing/adapting SQL and schema when moving from DB2. Solid understanding in networking/DNS, routing/proxies and firewall/security-group models for app connectivity. Practical TLS/PKI knowledge for Java/JBoss (keystores/truststores, hostname verification, etc.). Clear technical writing and stakeholder management; comfortable operating independently while supporting client teams. Desirable: Familiarity with IBM MQ/JMS client configuration from Java. Exposure to feature-flag/remote-config approaches. Experience with common Java web stacks (Servlet/JAX-RS; Spring familiarity is a plus but not required). Experience with DR testing and performance tuning under changing latency profiles.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>35.79%%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Contract W2 | No Travel Required | Hybrid | $75 - $85/hr</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,6 +1044,53 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Java Integration Architect - W2 Contract - Ongoing</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/23ae0c27-91c5-4fc5-aa7c-90aaa609844f?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=3&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Hybrid in Oakland, California</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>$75 - $85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Triune Infomatics Inc</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Role: Java Integration Architect Location: Oakland, CA (2 days onsite mandatory) Duration: 3 months + extensions &gt;&gt; ongoing Overview: Lead a 3 months' discovery, design, implementation support and remediation exercise so existing on-premises Java applications (Linux/JBoss) can interoperate with workloads migrating to cloud. Inspect code and runtime configuration to identify every change needed to repoint integrations and produce concise compatibility patterns to resolve common issues through testing and go-live. A major stream is re-platforming DB2 integrations to Microsoft SQL Server, covering both configuration and SQL/dialect changes. Project Insights: DB2 to SQL Server migration will involve confirmed complexities such as stored procedures; additional challenges like schema differences, SQL dialect variations, and data type mismatches are expected during delivery. Architect will collaborate with the existing DBA to analyze current models and resolve issues related to embedded SQL logic, pagination, identity/sequence handling, and stored procedure calls. Migration from on-prem DB2 to cloud SQL Server will require assessment and adaptation of TLS configurations, identity management practices, and network/proxy constraints — exact impacts to be identified as part of solution discovery. Key Responsibilities: Discovery &amp; code/config review: Analyze Java apps on Linux/JBoss to locate all integration touchpoints (HTTP, messaging, databases, files, schedulers, security, network paths) with exact file/line, JNDI and environment references. Application Remediation Report (deliverable): Capture the current → target change set, change action, and validation steps for each Java application. Examples include: Connectivity : New endpoints/FQDNs/ports for migrated APIs/gateways/queues/databases; DNS/TTL; routing/peering/private link; proxy/NO_PROXY where required; DR/failover targets for those endpoints. Security : TLS specifics for new endpoints (server names/SANs, cert chains, trust/keystores, ciphers, hostname verification/SNI); identities/secrets used to call the migrated services (users/passwords, API keys/tokens), where stored, and rotation owner. Interfaces : HTTP APIs now fronted in cloud: base URLs, versions/paths, required headers/scopes, contract deltas and version pinning. Gateways referenced by Java (only if used): e.g., CTG/cloud API gateway host/port/alias/timeouts/pools/charset as called by the app. Messaging (JMS/MQ) only if that queueing endpoint is migrating: queue manager/channel/connection names, ports, TLS, credentials. Database : New driver and JDBC URL (host/port/db, encryption, failover/AG listener/multiSubnetFailover), credentials, and required SQL/dialect/schema changes (types, functions, pagination, isolation/locking/WITH UR equivalents, stored procedure call syntax, error/return code mapping, identifier/collation rules). Include the network path to SQL Server (private link/peering/proxy) and validation of connectivity/failover. Runtime &amp; resilience : Connect/read timeouts, retries/back-off (idempotency where relevant), circuit breakers/health checks, transaction recovery impacts; charset/locale where gateway/database behavior changes. Application Compatibility Patterns (deliverable) : Produce short, reusable playbooks within Java scope for remediation and topology shifts (e.g., JDBC→SQL Server, TLS trust/hostname checks, HTTP client timeouts/retries, MQ/JMS client config, proxy/NO_PROXY, DNS failover, charset; and Java→CTG→CICS to Java→Cloud API Gateway→service; Java→VPN→DB2 to Java→SQL Server via private link), each with minimal code/config, verification and rollback. Stakeholder engagement: Work with client architects (application, integration, security, network) to shape options, agree patterns and support UAT/cutover. Governance &amp; traceability: Maintain per-app change logs and risks; surface dependencies and non-functional impacts (latency, throughput, DR). Documentation: Design and document the implementation steps to guide the development team through execution. Update and revise the documentation to align with the final integration setup to train and hand over the maintainability of the integrations to the client support team. Skills &amp; Experience (Essential): 7+ years as an application architect or senior Java engineer, able to read Java and pinpoint integration/configuration changes in Linux/JBoss environments. Demonstrable delivery of discovery/remediation for on-prem → cloud migrations, re-pointing integrations. Strong SQL with proven Microsoft SQL Server experience, including assessing/adapting SQL and schema when moving from DB2. Solid understanding in networking/DNS, routing/proxies and firewall/security-group models for app connectivity. Practical TLS/PKI knowledge for Java/JBoss (keystores/truststores, hostname verification, etc.). Clear technical writing and stakeholder management; comfortable operating independently while supporting client teams. Desirable: Familiarity with IBM MQ/JMS client configuration from Java. Exposure to feature-flag/remote-config approaches. Experience with common Java web stacks (Servlet/JAX-RS; Spring familiarity is a plus but not required). Experience with DR testing and performance tuning under changing latency profiles.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>35.79%%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Contract W2 | No Travel Required | Hybrid | $75 - $85/hr</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1091,6 +1091,53 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Informatica Cloud Data Governance Catalog Specialist</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/6f16b244-a92c-425a-9007-b06701ccabcf?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=2&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Torrance, California</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>USD 53.00 - 55.00 per hour</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Robert Half</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Description We are looking for an experienced Informatica Cloud Data Governance Catalog Specialist to join our team in Southern California. This position involves working on-site four days per week and offers a long-term contract opportunity. The ideal candidate will have a strong background in data governance, analytics, and business intelligence tools, coupled with a proactive approach to problem-solving and collaboration. Responsibilities: Create catalog quality reports to monitor and enhance data governance metrics across domains and sub-domains. Develop and showcase data governance dashboards tailored to different user roles, including Data Owners, Stewards, Engineers, and Privacy Officers. Collaborate with business and IT teams, including data stewards, catalog architects, and platform owners, to implement governance solutions. Execute profiling, sampling, and scanner setups using Informatica tools to ensure data quality. Apply expertise in metadata management, data modeling, and large-scale data analysis to support governance initiatives. Design and implement both traditional relational and modern big-data architectures based on organizational requirements. Utilize business intelligence tools such as Power BI and Tableau to create actionable insights and reports. Define compliance procedures and produce audit reports to meet regulatory requirements. Establish and support governance councils and operational frameworks using data catalog tools. Facilitate metadata ingestion and ensure adherence to data security and quality standards. Requirements Proficiency with tools like Informatica Cloud Data Governance Catalog and Cloud Data Quality. Hands-on experience in data modeling, metadata management, and large-scale data analysis. Familiarity with Collibra, Alation, and Glue Data Catalog. Strong understanding of entity-relationship modeling and data security practices. Expertise in business intelligence technologies such as Power BI and Tableau. Exceptional communication and presentation skills to effectively convey technical concepts. Analytical mindset with proven problem-solving abilities. Ability to work collaboratively as part of a team and build strong relationships with stakeholders. Technology Doesn't Change the World, People Do. Robert Half is the world's first and largest specialized talent solutions firm that connects highly qualified job seekers to opportunities at great companies. We offer contract, temporary and permanent placement solutions for finance and accounting, technology, marketing and creative, legal, and administrative and customer support roles. Robert Half works to put you in the best position to succeed. We provide access to top jobs, competitive compensation and benefits, and free online training. Stay on top of every opportunity - whenever you choose - even on the go. Download the Robert Half app and get 1-tap apply, notifications of AI-matched jobs, and much more. All applicants applying for U.S. job openings must be legally authorized to work in the United States. Benefits are available to contract/temporary professionals, including medical, vision, dental, and life and disability insurance. Hired contract/temporary professionals are also eligible to enroll in our company 401(k) plan. Visit roberthalf.gobenefits.net for more information. 2025 Robert Half. An Equal Opportunity Employer. M/F/Disability/Veterans. By clicking "Apply Now," you're agreeing to Robert Half's Terms of Use and Privacy Notice.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>24.4%%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Contract Independent | Contract W2 | On-site | USD $53.00 - 55.00 per hour</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dice_jobs_list.xlsx
+++ b/dice_jobs_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,6 +1138,100 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Informatica Cloud Data Governance Catalog Specialist</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/6f16b244-a92c-425a-9007-b06701ccabcf?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=1&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Torrance, California</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>USD 53.00 - 55.00 per hour</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Robert Half</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Description We are looking for an experienced Informatica Cloud Data Governance Catalog Specialist to join our team in Southern California. This position involves working on-site four days per week and offers a long-term contract opportunity. The ideal candidate will have a strong background in data governance, analytics, and business intelligence tools, coupled with a proactive approach to problem-solving and collaboration. Responsibilities: Create catalog quality reports to monitor and enhance data governance metrics across domains and sub-domains. Develop and showcase data governance dashboards tailored to different user roles, including Data Owners, Stewards, Engineers, and Privacy Officers. Collaborate with business and IT teams, including data stewards, catalog architects, and platform owners, to implement governance solutions. Execute profiling, sampling, and scanner setups using Informatica tools to ensure data quality. Apply expertise in metadata management, data modeling, and large-scale data analysis to support governance initiatives. Design and implement both traditional relational and modern big-data architectures based on organizational requirements. Utilize business intelligence tools such as Power BI and Tableau to create actionable insights and reports. Define compliance procedures and produce audit reports to meet regulatory requirements. Establish and support governance councils and operational frameworks using data catalog tools. Facilitate metadata ingestion and ensure adherence to data security and quality standards. Requirements Proficiency with tools like Informatica Cloud Data Governance Catalog and Cloud Data Quality. Hands-on experience in data modeling, metadata management, and large-scale data analysis. Familiarity with Collibra, Alation, and Glue Data Catalog. Strong understanding of entity-relationship modeling and data security practices. Expertise in business intelligence technologies such as Power BI and Tableau. Exceptional communication and presentation skills to effectively convey technical concepts. Analytical mindset with proven problem-solving abilities. Ability to work collaboratively as part of a team and build strong relationships with stakeholders. Technology Doesn't Change the World, People Do. Robert Half is the world's first and largest specialized talent solutions firm that connects highly qualified job seekers to opportunities at great companies. We offer contract, temporary and permanent placement solutions for finance and accounting, technology, marketing and creative, legal, and administrative and customer support roles. Robert Half works to put you in the best position to succeed. We provide access to top jobs, competitive compensation and benefits, and free online training. Stay on top of every opportunity - whenever you choose - even on the go. Download the Robert Half app and get 1-tap apply, notifications of AI-matched jobs, and much more. All applicants applying for U.S. job openings must be legally authorized to work in the United States. Benefits are available to contract/temporary professionals, including medical, vision, dental, and life and disability insurance. Hired contract/temporary professionals are also eligible to enroll in our company 401(k) plan. Visit roberthalf.gobenefits.net for more information. 2025 Robert Half. An Equal Opportunity Employer. M/F/Disability/Veterans. By clicking "Apply Now," you're agreeing to Robert Half's Terms of Use and Privacy Notice.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>24.4%%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Contract Independent | Contract W2 | On-site | USD $53.00 - 55.00 per hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Java Integration Architect - W2 Contract - Ongoing</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.dice.com/job-detail/23ae0c27-91c5-4fc5-aa7c-90aaa609844f?filters.employmentType=CONTRACTS%7CTHIRD_PARTY&amp;filters.postedDate=ONE&amp;page=2&amp;location=United+States&amp;longitude=-106.5348379&amp;latitude=38.7945952&amp;locationPrecision=Country&amp;countryCode=US&amp;q=Golang</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Hybrid in Oakland, California</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>$75 - $85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Triune Infomatics Inc</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Role: Java Integration Architect Location: Oakland, CA (2 days onsite mandatory) Duration: 3 months + extensions &gt;&gt; ongoing Overview: Lead a 3 months' discovery, design, implementation support and remediation exercise so existing on-premises Java applications (Linux/JBoss) can interoperate with workloads migrating to cloud. Inspect code and runtime configuration to identify every change needed to repoint integrations and produce concise compatibility patterns to resolve common issues through testing and go-live. A major stream is re-platforming DB2 integrations to Microsoft SQL Server, covering both configuration and SQL/dialect changes. Project Insights: DB2 to SQL Server migration will involve confirmed complexities such as stored procedures; additional challenges like schema differences, SQL dialect variations, and data type mismatches are expected during delivery. Architect will collaborate with the existing DBA to analyze current models and resolve issues related to embedded SQL logic, pagination, identity/sequence handling, and stored procedure calls. Migration from on-prem DB2 to cloud SQL Server will require assessment and adaptation of TLS configurations, identity management practices, and network/proxy constraints — exact impacts to be identified as part of solution discovery. Key Responsibilities: Discovery &amp; code/config review: Analyze Java apps on Linux/JBoss to locate all integration touchpoints (HTTP, messaging, databases, files, schedulers, security, network paths) with exact file/line, JNDI and environment references. Application Remediation Report (deliverable): Capture the current → target change set, change action, and validation steps for each Java application. Examples include: Connectivity : New endpoints/FQDNs/ports for migrated APIs/gateways/queues/databases; DNS/TTL; routing/peering/private link; proxy/NO_PROXY where required; DR/failover targets for those endpoints. Security : TLS specifics for new endpoints (server names/SANs, cert chains, trust/keystores, ciphers, hostname verification/SNI); identities/secrets used to call the migrated services (users/passwords, API keys/tokens), where stored, and rotation owner. Interfaces : HTTP APIs now fronted in cloud: base URLs, versions/paths, required headers/scopes, contract deltas and version pinning. Gateways referenced by Java (only if used): e.g., CTG/cloud API gateway host/port/alias/timeouts/pools/charset as called by the app. Messaging (JMS/MQ) only if that queueing endpoint is migrating: queue manager/channel/connection names, ports, TLS, credentials. Database : New driver and JDBC URL (host/port/db, encryption, failover/AG listener/multiSubnetFailover), credentials, and required SQL/dialect/schema changes (types, functions, pagination, isolation/locking/WITH UR equivalents, stored procedure call syntax, error/return code mapping, identifier/collation rules). Include the network path to SQL Server (private link/peering/proxy) and validation of connectivity/failover. Runtime &amp; resilience : Connect/read timeouts, retries/back-off (idempotency where relevant), circuit breakers/health checks, transaction recovery impacts; charset/locale where gateway/database behavior changes. Application Compatibility Patterns (deliverable) : Produce short, reusable playbooks within Java scope for remediation and topology shifts (e.g., JDBC→SQL Server, TLS trust/hostname checks, HTTP client timeouts/retries, MQ/JMS client config, proxy/NO_PROXY, DNS failover, charset; and Java→CTG→CICS to Java→Cloud API Gateway→service; Java→VPN→DB2 to Java→SQL Server via private link), each with minimal code/config, verification and rollback. Stakeholder engagement: Work with client architects (application, integration, security, network) to shape options, agree patterns and support UAT/cutover. Governance &amp; traceability: Maintain per-app change logs and risks; surface dependencies and non-functional impacts (latency, throughput, DR). Documentation: Design and document the implementation steps to guide the development team through execution. Update and revise the documentation to align with the final integration setup to train and hand over the maintainability of the integrations to the client support team. Skills &amp; Experience (Essential): 7+ years as an application architect or senior Java engineer, able to read Java and pinpoint integration/configuration changes in Linux/JBoss environments. Demonstrable delivery of discovery/remediation for on-prem → cloud migrations, re-pointing integrations. Strong SQL with proven Microsoft SQL Server experience, including assessing/adapting SQL and schema when moving from DB2. Solid understanding in networking/DNS, routing/proxies and firewall/security-group models for app connectivity. Practical TLS/PKI knowledge for Java/JBoss (keystores/truststores, hostname verification, etc.). Clear technical writing and stakeholder management; comfortable operating independently while supporting client teams. Desirable: Familiarity with IBM MQ/JMS client configuration from Java. Exposure to feature-flag/remote-config approaches. Experience with common Java web stacks (Servlet/JAX-RS; Spring familiarity is a plus but not required). Experience with DR testing and performance tuning under changing latency profiles.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>35.79%%</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Contract W2 | No Travel Required | Hybrid | $75 - $85/hr</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
